--- a/holdings/msos/03-23-21.xlsx
+++ b/holdings/msos/03-23-21.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/22/2021</t>
+          <t>3/23/2021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,22 +513,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2,599,918.00</t>
+          <t xml:space="preserve"> 2,599,918.00 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>49.77</t>
+          <t xml:space="preserve"> 48.05 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>129,397,918.86</t>
+          <t xml:space="preserve"> 124,926,059.90 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11.50%</t>
+          <t>11.67%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -557,22 +557,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7,973,295.00</t>
+          <t xml:space="preserve"> 7,973,295.00 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15.94</t>
+          <t xml:space="preserve"> 15.25 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>127,094,322.30</t>
+          <t xml:space="preserve"> 121,592,748.75 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>11.36%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -601,22 +601,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3,667,220.00</t>
+          <t xml:space="preserve"> 3,667,220.00 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t xml:space="preserve"> 30.91 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>123,768,675.00</t>
+          <t xml:space="preserve"> 113,350,469.70 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11.00%</t>
+          <t>10.59%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7,432,095.00</t>
+          <t xml:space="preserve"> 7,432,095.00 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13.63</t>
+          <t xml:space="preserve"> 13.32 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>101,275,672.15</t>
+          <t xml:space="preserve"> 98,972,465.91 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2,380,911.00</t>
+          <t xml:space="preserve"> 2,380,911.00 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>33.68</t>
+          <t xml:space="preserve"> 33.00 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80,198,060.90</t>
+          <t xml:space="preserve"> 78,570,063.00 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7.13%</t>
+          <t>7.34%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -733,22 +733,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5,351,676.00</t>
+          <t xml:space="preserve"> 5,351,676.00 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t xml:space="preserve"> 10.70 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>59,026,845.61</t>
+          <t xml:space="preserve"> 57,262,933.20 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.25%</t>
+          <t>5.35%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -762,42 +762,42 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GRWG</t>
+          <t>CCHWF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>39986L109</t>
+          <t>CCHWFTRS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GROWGENERATION CORP</t>
+          <t>COLUMBIA CARE INC SWAP REC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,045,543.00</t>
+          <t xml:space="preserve"> 8,685,491.00 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>55.19</t>
+          <t xml:space="preserve"> 6.35 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>57,703,518.17</t>
+          <t xml:space="preserve"> 55,152,867.85 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5.13%</t>
+          <t>5.15%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -806,42 +806,42 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CCHWF</t>
+          <t>GRWG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCHWFTRS</t>
+          <t>39986L109</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COLUMBIA CARE INC SWAP REC</t>
+          <t>GROWGENERATION CORP</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8,685,491.00</t>
+          <t xml:space="preserve"> 1,034,843.00 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t xml:space="preserve"> 52.17 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>54,544,883.48</t>
+          <t xml:space="preserve"> 53,987,759.31 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.85%</t>
+          <t>5.04%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -865,22 +865,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>294,414.00</t>
+          <t xml:space="preserve"> 291,414.00 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>175.6</t>
+          <t xml:space="preserve"> 172.33 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>51,699,098.40</t>
+          <t xml:space="preserve"> 50,219,374.62 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.60%</t>
+          <t>4.69%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6,140,425.00</t>
+          <t xml:space="preserve"> 6,140,425.00 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t xml:space="preserve"> 6.84 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>44,088,251.50</t>
+          <t xml:space="preserve"> 42,000,507.00 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -953,22 +953,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5,633,776.00</t>
+          <t xml:space="preserve"> 5,633,776.00 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t xml:space="preserve"> 6.45 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>37,858,974.72</t>
+          <t xml:space="preserve"> 36,337,855.20 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11,409,070.00</t>
+          <t xml:space="preserve"> 11,409,070.00 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t xml:space="preserve"> 3.08 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>37,535,840.30</t>
+          <t xml:space="preserve"> 35,139,935.60 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.34%</t>
+          <t>3.28%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1026,42 +1026,42 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GRAMF</t>
+          <t>PKI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GRAMFTRS</t>
+          <t>714046109</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RECV GRAMF TPCO HOLD CORP SWAP</t>
+          <t>PERKINELMER INC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3,993,096.00</t>
+          <t xml:space="preserve"> 246,258.00 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t xml:space="preserve"> 127.25 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>34,361,389.70</t>
+          <t xml:space="preserve"> 31,336,330.50 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1070,42 +1070,42 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PKI</t>
+          <t>GRAMF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>714046109</t>
+          <t>GRAMFTRS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PERKINELMER INC</t>
+          <t>RECV GRAMF TPCO HOLD CORP SWAP</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>248,758.00</t>
+          <t xml:space="preserve"> 3,993,096.00 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>128.13</t>
+          <t xml:space="preserve"> 7.84 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>31,873,362.54</t>
+          <t xml:space="preserve"> 31,299,883.00 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.83%</t>
+          <t>2.92%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1129,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17,016,571.00</t>
+          <t xml:space="preserve"> 17,016,571.00 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t xml:space="preserve"> 1.29 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22,182,801.96</t>
+          <t xml:space="preserve"> 21,951,376.59 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.97%</t>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1173,22 +1173,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2,986,917.00</t>
+          <t xml:space="preserve"> 2,986,917.00 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t xml:space="preserve"> 5.72 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17,443,595.28</t>
+          <t xml:space="preserve"> 17,085,165.24 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>1.60%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>764,184.00</t>
+          <t xml:space="preserve"> 764,184.00 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.89</t>
+          <t xml:space="preserve"> 19.25 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15,199,619.76</t>
+          <t xml:space="preserve"> 14,707,019.11 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7,577,268.00</t>
+          <t xml:space="preserve"> 7,577,268.00 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t xml:space="preserve"> 1.48 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11,593,220.04</t>
+          <t xml:space="preserve"> 11,214,356.64 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1305,22 +1305,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4,140,230.00</t>
+          <t xml:space="preserve"> 4,140,230.00 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t xml:space="preserve"> 2.63 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10,971,609.50</t>
+          <t xml:space="preserve"> 10,888,804.90 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1334,42 +1334,42 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CWEB</t>
+          <t>BMWLF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BGHY2B1</t>
+          <t>BMWLFFFS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CHARLOTTES WEB HOLDINGS INC</t>
+          <t>BLUMA WELLNESS SWAP REC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1,891,962.00</t>
+          <t xml:space="preserve"> 7,260,000.00 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t xml:space="preserve"> 1.18 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8,879,543.89</t>
+          <t xml:space="preserve"> 8,537,760.00 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.80%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1378,37 +1378,37 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CBDHF</t>
+          <t>CWEB</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>423821107</t>
+          <t>BGHY2B1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HEMPFUSION WELLNESS INC</t>
+          <t>CHARLOTTES WEB HOLDINGS INC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3,446,918.00</t>
+          <t xml:space="preserve"> 1,872,612.00 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t xml:space="preserve"> 4.54 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8,617,295.00</t>
+          <t xml:space="preserve"> 8,505,429.22 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1422,42 +1422,42 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BMWLF</t>
+          <t>HYFM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BMWLFFFS</t>
+          <t>44888K209</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BLUMA WELLNESS SWAP REC</t>
+          <t>HYDROFARM HOLDINGS GROUP INC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7,260,000.00</t>
+          <t xml:space="preserve"> 119,586.00 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t xml:space="preserve"> 68.27 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8,203,800.00</t>
+          <t xml:space="preserve"> 8,164,136.22 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1466,42 +1466,42 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ZYNE</t>
+          <t>CBDHF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>98986X109</t>
+          <t>423821107</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ZYNERBA PHARMACEUTICALS INC</t>
+          <t>HEMPFUSION WELLNESS INC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1,291,726.00</t>
+          <t xml:space="preserve"> 3,411,618.00 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t xml:space="preserve"> 2.20 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6,600,719.86</t>
+          <t xml:space="preserve"> 7,505,559.60 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>FS</t>
         </is>
       </c>
     </row>
@@ -1510,37 +1510,37 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HYFM</t>
+          <t>PW</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44888K209</t>
+          <t>73933H101</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HYDROFARM HOLDINGS GROUP INC</t>
+          <t>POWER REIT</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>90,486.00</t>
+          <t xml:space="preserve"> 146,966.00 </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>69.48</t>
+          <t xml:space="preserve"> 42.91 </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6,286,967.28</t>
+          <t xml:space="preserve"> 6,306,311.06 </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.59%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1554,42 +1554,42 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LOWLF</t>
+          <t>ZYNE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LOWLFFFS</t>
+          <t>98986X109</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LOWELL FARMS INC-SUB SWAP REC</t>
+          <t>ZYNERBA PHARMACEUTICALS INC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3,938,631.00</t>
+          <t xml:space="preserve"> 1,278,526.00 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t xml:space="preserve"> 4.89 </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6,242,690.75</t>
+          <t xml:space="preserve"> 6,251,992.14 </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.58%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1598,42 +1598,42 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PW</t>
+          <t>LOWLF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>73933H101</t>
+          <t>LOWLFFFS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>POWER REIT</t>
+          <t>LOWELL FARMS INC-SUB SWAP REC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>142,290.00</t>
+          <t xml:space="preserve"> 3,938,631.00 </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>43.49</t>
+          <t xml:space="preserve"> 1.47 </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6,188,192.10</t>
+          <t xml:space="preserve"> 5,784,273.49 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>40047607</t>
+          <t>040047607</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>70,159.00</t>
+          <t xml:space="preserve"> 69,459.00 </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>76.51</t>
+          <t xml:space="preserve"> 72.96 </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5,367,865.09</t>
+          <t xml:space="preserve"> 5,067,728.64 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>0.47%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1,000,466.00</t>
+          <t xml:space="preserve"> 990,216.00 </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t xml:space="preserve"> 3.98 </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4,081,901.28</t>
+          <t xml:space="preserve"> 3,941,059.68 </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>0.37%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1745,22 +1745,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1,735,610.00</t>
+          <t xml:space="preserve"> 1,717,860.00 </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t xml:space="preserve"> 1.95 </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3,657,269.74</t>
+          <t xml:space="preserve"> 3,353,724.85 </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>592,374.00</t>
+          <t xml:space="preserve"> 592,374.00 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t xml:space="preserve"> 5.24 </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3,234,362.04</t>
+          <t xml:space="preserve"> 3,104,039.76 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3,856,256.00</t>
+          <t xml:space="preserve"> 3,856,256.00 </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t xml:space="preserve"> 0.76 </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3,043,395.80</t>
+          <t xml:space="preserve"> 2,935,767.69 </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
